--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value873.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value873.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194512796509902</v>
+        <v>0.8644635677337646</v>
       </c>
       <c r="B1">
-        <v>2.576648477693478</v>
+        <v>3.259998798370361</v>
       </c>
       <c r="C1">
-        <v>3.813127643854749</v>
+        <v>2.597519159317017</v>
       </c>
       <c r="D1">
-        <v>2.855659017130021</v>
+        <v>2.43107533454895</v>
       </c>
       <c r="E1">
-        <v>1.139763829801371</v>
+        <v>2.026140928268433</v>
       </c>
     </row>
   </sheetData>
